--- a/biology/Botanique/Garnet_Chili/Garnet_Chili.xlsx
+++ b/biology/Botanique/Garnet_Chili/Garnet_Chili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Garnet Chili' est une variété de pomme de terre historique, créée aux États-Unis  à Utica (New York) au milieu du XIXe siècle par le révérend Chauncey E. Goodrich. Elle est issue de semis de pomme de terre 'Rough Puple Chili', variété importée par l'intermédiaire de l'ambassade des États-Unis au Panama et présumée d'origine chilienne. Il s'agissait à l'époque d'introduire des gènes de résistance au mildiou, maladie qui ravageait les cultures de pommes de terre de la Nouvelle-Angleterre depuis 1842, et de lutter contre la « dégénérescence » des variétés anciennes dont la cause virale était inconnue à l'époque.
